--- a/predictions/Прогнозы_ProphetMul.xlsx
+++ b/predictions/Прогнозы_ProphetMul.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22519259.9984985</v>
+        <v>31007564.76849131</v>
       </c>
       <c r="C2" t="n">
-        <v>29512871.64353146</v>
+        <v>27353143.52515403</v>
       </c>
       <c r="D2" t="n">
-        <v>29179994.59348087</v>
+        <v>25359171.32984499</v>
       </c>
       <c r="E2" t="n">
-        <v>25947629.49864752</v>
+        <v>26900512.88481767</v>
       </c>
       <c r="F2" t="n">
-        <v>26742716.6537041</v>
+        <v>22485961.64544737</v>
       </c>
       <c r="G2" t="n">
-        <v>21850140.03634599</v>
+        <v>22060669.95940141</v>
       </c>
       <c r="H2" t="n">
-        <v>21520586.39346198</v>
+        <v>24199495.57253093</v>
       </c>
       <c r="I2" t="n">
-        <v>24108670.39803637</v>
+        <v>24416151.77999021</v>
       </c>
       <c r="J2" t="n">
-        <v>24843419.2867781</v>
+        <v>23971428.45710286</v>
       </c>
       <c r="K2" t="n">
-        <v>24967671.79336939</v>
+        <v>27923847.88282228</v>
       </c>
       <c r="L2" t="n">
-        <v>29555711.15236878</v>
+        <v>30793929.18545305</v>
       </c>
       <c r="M2" t="n">
-        <v>32792087.29634649</v>
+        <v>21798629.84497794</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32625452.07823208</v>
+        <v>19030864.05739562</v>
       </c>
       <c r="C3" t="n">
-        <v>2455576.44070989</v>
+        <v>-68705687.02274729</v>
       </c>
       <c r="D3" t="n">
-        <v>-46660737.99844564</v>
+        <v>99843178.79664648</v>
       </c>
       <c r="E3" t="n">
-        <v>88047812.69239789</v>
+        <v>99864791.92975883</v>
       </c>
       <c r="F3" t="n">
-        <v>53872692.38088875</v>
+        <v>13775829.000058</v>
       </c>
       <c r="G3" t="n">
-        <v>60750503.94195937</v>
+        <v>-26458236.72026407</v>
       </c>
       <c r="H3" t="n">
-        <v>-50899759.75205228</v>
+        <v>-40273951.84886434</v>
       </c>
       <c r="I3" t="n">
-        <v>-43509188.18592331</v>
+        <v>30879879.43521906</v>
       </c>
       <c r="J3" t="n">
-        <v>44560671.13870088</v>
+        <v>45030210.97294623</v>
       </c>
       <c r="K3" t="n">
-        <v>55854232.63845067</v>
+        <v>25959671.56651214</v>
       </c>
       <c r="L3" t="n">
-        <v>33634971.83349761</v>
+        <v>102779004.3908588</v>
       </c>
       <c r="M3" t="n">
-        <v>114408336.3964429</v>
+        <v>25696099.59412821</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7201804.687952888</v>
+        <v>55287762.35911562</v>
       </c>
       <c r="C4" t="n">
-        <v>2198526.919936652</v>
+        <v>-185385726.6446389</v>
       </c>
       <c r="D4" t="n">
-        <v>-40927788.61462568</v>
+        <v>132576904.9738918</v>
       </c>
       <c r="E4" t="n">
-        <v>17009388.31643086</v>
+        <v>64898957.10838054</v>
       </c>
       <c r="F4" t="n">
-        <v>19757163.60520126</v>
+        <v>42234415.83046807</v>
       </c>
       <c r="G4" t="n">
-        <v>32683706.26034657</v>
+        <v>27312896.66115648</v>
       </c>
       <c r="H4" t="n">
-        <v>16557396.95217633</v>
+        <v>-11010513.64936113</v>
       </c>
       <c r="I4" t="n">
-        <v>-2102241.9514425</v>
+        <v>59063125.45374039</v>
       </c>
       <c r="J4" t="n">
-        <v>39202569.86505914</v>
+        <v>83729296.22372937</v>
       </c>
       <c r="K4" t="n">
-        <v>38299402.18243132</v>
+        <v>100856717.1536009</v>
       </c>
       <c r="L4" t="n">
-        <v>41343775.46189396</v>
+        <v>125086496.5146061</v>
       </c>
       <c r="M4" t="n">
-        <v>27827831.50213258</v>
+        <v>124199400.1087103</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-13206812.95672775</v>
+        <v>25619809.39713451</v>
       </c>
       <c r="C5" t="n">
-        <v>847980.7672234379</v>
+        <v>33379479.04479876</v>
       </c>
       <c r="D5" t="n">
-        <v>14609134.06126447</v>
+        <v>25772564.80058433</v>
       </c>
       <c r="E5" t="n">
-        <v>-3180644.024540524</v>
+        <v>22188029.05501632</v>
       </c>
       <c r="F5" t="n">
-        <v>3149005.524077654</v>
+        <v>30463064.53717786</v>
       </c>
       <c r="G5" t="n">
-        <v>984118.2453955878</v>
+        <v>30665723.45321992</v>
       </c>
       <c r="H5" t="n">
-        <v>-756167.4570085139</v>
+        <v>33196271.51414513</v>
       </c>
       <c r="I5" t="n">
-        <v>-1028899.65772226</v>
+        <v>37425346.3070018</v>
       </c>
       <c r="J5" t="n">
-        <v>-8726864.911075143</v>
+        <v>31567520.61367304</v>
       </c>
       <c r="K5" t="n">
-        <v>194894935.2879445</v>
+        <v>35405683.55399531</v>
       </c>
       <c r="L5" t="n">
-        <v>-42021705.10119602</v>
+        <v>64902635.68326197</v>
       </c>
       <c r="M5" t="n">
-        <v>-77144766.54360858</v>
+        <v>6806498.845541756</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5804254.869452779</v>
+        <v>3906526.216519797</v>
       </c>
       <c r="C6" t="n">
-        <v>10651979.34332509</v>
+        <v>5208309.221748832</v>
       </c>
       <c r="D6" t="n">
-        <v>9354387.986613847</v>
+        <v>4771014.088170419</v>
       </c>
       <c r="E6" t="n">
-        <v>9546271.588662842</v>
+        <v>3472314.131926073</v>
       </c>
       <c r="F6" t="n">
-        <v>8279445.324256586</v>
+        <v>3778544.67793196</v>
       </c>
       <c r="G6" t="n">
-        <v>13108045.85132024</v>
+        <v>4017782.575161973</v>
       </c>
       <c r="H6" t="n">
-        <v>11711238.27110419</v>
+        <v>2954729.519166438</v>
       </c>
       <c r="I6" t="n">
-        <v>9967403.703590648</v>
+        <v>4259150.266922232</v>
       </c>
       <c r="J6" t="n">
-        <v>10932856.13509838</v>
+        <v>1849497.604056974</v>
       </c>
       <c r="K6" t="n">
-        <v>14870931.23540885</v>
+        <v>3569897.315107555</v>
       </c>
       <c r="L6" t="n">
-        <v>11829456.27855385</v>
+        <v>2251032.40082656</v>
       </c>
       <c r="M6" t="n">
-        <v>29390983.57015436</v>
+        <v>2319563.371070779</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>538811.2197614972</v>
+        <v>270468.424404777</v>
       </c>
       <c r="C7" t="n">
-        <v>5157926.461602699</v>
+        <v>17517982.88462483</v>
       </c>
       <c r="D7" t="n">
-        <v>3865220.792963443</v>
+        <v>18933820.18083139</v>
       </c>
       <c r="E7" t="n">
-        <v>4872308.539940935</v>
+        <v>-5051448.872590807</v>
       </c>
       <c r="F7" t="n">
-        <v>2963253.291407327</v>
+        <v>13123985.02217469</v>
       </c>
       <c r="G7" t="n">
-        <v>3034398.460316699</v>
+        <v>16438019.08687084</v>
       </c>
       <c r="H7" t="n">
-        <v>2143796.408334675</v>
+        <v>20824718.90753353</v>
       </c>
       <c r="I7" t="n">
-        <v>2955373.391081674</v>
+        <v>20238117.40146594</v>
       </c>
       <c r="J7" t="n">
-        <v>4400858.597823681</v>
+        <v>22789512.35089174</v>
       </c>
       <c r="K7" t="n">
-        <v>2161144.808191348</v>
+        <v>5841759.185766036</v>
       </c>
       <c r="L7" t="n">
-        <v>3140774.422104602</v>
+        <v>959435.4307208969</v>
       </c>
       <c r="M7" t="n">
-        <v>7454740.796306814</v>
+        <v>-5365550.740662898</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1436059.64967875</v>
+        <v>20239140.46874401</v>
       </c>
       <c r="C8" t="n">
-        <v>1422374.285191984</v>
+        <v>21895095.20168742</v>
       </c>
       <c r="D8" t="n">
-        <v>1916365.296324598</v>
+        <v>21003031.17973338</v>
       </c>
       <c r="E8" t="n">
-        <v>1729939.152885513</v>
+        <v>18094570.62420895</v>
       </c>
       <c r="F8" t="n">
-        <v>662640.3659096261</v>
+        <v>21308314.83788624</v>
       </c>
       <c r="G8" t="n">
-        <v>1585472.033853359</v>
+        <v>20308881.68196142</v>
       </c>
       <c r="H8" t="n">
-        <v>2239871.8836419</v>
+        <v>14887183.6443482</v>
       </c>
       <c r="I8" t="n">
-        <v>1864188.686545619</v>
+        <v>19789955.8822205</v>
       </c>
       <c r="J8" t="n">
-        <v>1668690.774386242</v>
+        <v>17759345.02696409</v>
       </c>
       <c r="K8" t="n">
-        <v>1650819.968203675</v>
+        <v>20931542.18369595</v>
       </c>
       <c r="L8" t="n">
-        <v>4230922.76619736</v>
+        <v>28451463.03506298</v>
       </c>
       <c r="M8" t="n">
-        <v>1858043.209367429</v>
+        <v>12673875.97802634</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>221626.5140186606</v>
+        <v>17058366.66484501</v>
       </c>
       <c r="C9" t="n">
-        <v>15779522.08880381</v>
+        <v>19886807.86874063</v>
       </c>
       <c r="D9" t="n">
-        <v>41746369.38472309</v>
+        <v>34238580.25995828</v>
       </c>
       <c r="E9" t="n">
-        <v>26851982.85401618</v>
+        <v>26682881.16793281</v>
       </c>
       <c r="F9" t="n">
-        <v>-6401990.96993857</v>
+        <v>39168396.35132704</v>
       </c>
       <c r="G9" t="n">
-        <v>13984897.9264227</v>
+        <v>31489421.93855441</v>
       </c>
       <c r="H9" t="n">
-        <v>-6386192.791014483</v>
+        <v>35078948.824154</v>
       </c>
       <c r="I9" t="n">
-        <v>10651272.69409262</v>
+        <v>38816531.86459247</v>
       </c>
       <c r="J9" t="n">
-        <v>-1651779.080253921</v>
+        <v>29492483.08686637</v>
       </c>
       <c r="K9" t="n">
-        <v>44306872.09218262</v>
+        <v>28200747.97014517</v>
       </c>
       <c r="L9" t="n">
-        <v>45975202.44037804</v>
+        <v>52698064.18097892</v>
       </c>
       <c r="M9" t="n">
-        <v>-40324405.9915437</v>
+        <v>25281345.9085632</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2030359.315185307</v>
+        <v>-20322322.81153944</v>
       </c>
       <c r="C10" t="n">
-        <v>4946396.199806625</v>
+        <v>-10852925.16975633</v>
       </c>
       <c r="D10" t="n">
-        <v>13265834.84088232</v>
+        <v>41369099.10879146</v>
       </c>
       <c r="E10" t="n">
-        <v>5532212.859692994</v>
+        <v>-5816558.250650664</v>
       </c>
       <c r="F10" t="n">
-        <v>5951112.919018593</v>
+        <v>58182083.60890761</v>
       </c>
       <c r="G10" t="n">
-        <v>7217675.363799823</v>
+        <v>39086441.31241141</v>
       </c>
       <c r="H10" t="n">
-        <v>7516134.267383266</v>
+        <v>36865744.40837725</v>
       </c>
       <c r="I10" t="n">
-        <v>10036635.86300575</v>
+        <v>62935985.79614113</v>
       </c>
       <c r="J10" t="n">
-        <v>11680210.08855049</v>
+        <v>45771603.38286617</v>
       </c>
       <c r="K10" t="n">
-        <v>8688874.616009308</v>
+        <v>18056738.6333286</v>
       </c>
       <c r="L10" t="n">
-        <v>10289857.45779464</v>
+        <v>23037500.39710837</v>
       </c>
       <c r="M10" t="n">
-        <v>15928848.03018771</v>
+        <v>-43800260.69284572</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7255134.577090868</v>
+        <v>-3775751.025546436</v>
       </c>
       <c r="C11" t="n">
-        <v>6095157.30407018</v>
+        <v>-28182322.9882336</v>
       </c>
       <c r="D11" t="n">
-        <v>12844056.91244441</v>
+        <v>28902273.2004935</v>
       </c>
       <c r="E11" t="n">
-        <v>7708302.068165536</v>
+        <v>42049025.04462819</v>
       </c>
       <c r="F11" t="n">
-        <v>4130534.513267292</v>
+        <v>-2748806.968740264</v>
       </c>
       <c r="G11" t="n">
-        <v>853678.8989346003</v>
+        <v>13628566.16009394</v>
       </c>
       <c r="H11" t="n">
-        <v>6084170.896711393</v>
+        <v>11861714.9425316</v>
       </c>
       <c r="I11" t="n">
-        <v>883294.3333459452</v>
+        <v>32294294.64453349</v>
       </c>
       <c r="J11" t="n">
-        <v>8104197.773947875</v>
+        <v>41167384.62337983</v>
       </c>
       <c r="K11" t="n">
-        <v>-2513056.953417526</v>
+        <v>33556365.38881572</v>
       </c>
       <c r="L11" t="n">
-        <v>10555575.64783345</v>
+        <v>-9120776.315704059</v>
       </c>
       <c r="M11" t="n">
-        <v>2030967.895927516</v>
+        <v>-3873672.295861192</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-10529.61563113327</v>
+        <v>34530218.48722823</v>
       </c>
       <c r="C12" t="n">
-        <v>-85039.1735548034</v>
+        <v>43471961.69774171</v>
       </c>
       <c r="D12" t="n">
-        <v>-198309.9072546606</v>
+        <v>34484991.10400153</v>
       </c>
       <c r="E12" t="n">
-        <v>-253302.4532419307</v>
+        <v>29554453.53669971</v>
       </c>
       <c r="F12" t="n">
-        <v>-345581.7431781148</v>
+        <v>41253363.09651546</v>
       </c>
       <c r="G12" t="n">
-        <v>-387155.7575927282</v>
+        <v>53364374.26244954</v>
       </c>
       <c r="H12" t="n">
-        <v>-446591.7268733958</v>
+        <v>43986513.76826962</v>
       </c>
       <c r="I12" t="n">
-        <v>-506631.3205399671</v>
+        <v>49533474.23747674</v>
       </c>
       <c r="J12" t="n">
-        <v>-594545.2196012757</v>
+        <v>47377069.12117115</v>
       </c>
       <c r="K12" t="n">
-        <v>-655014.0901294476</v>
+        <v>44788711.4123088</v>
       </c>
       <c r="L12" t="n">
-        <v>-646056.8697918723</v>
+        <v>41552953.45211146</v>
       </c>
       <c r="M12" t="n">
-        <v>-842308.7299592345</v>
+        <v>38550057.06315278</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-140369.6950774298</v>
+        <v>32494751.79595996</v>
       </c>
       <c r="C13" t="n">
-        <v>-1343447.453596348</v>
+        <v>36495046.41717228</v>
       </c>
       <c r="D13" t="n">
-        <v>3744267.45828187</v>
+        <v>35219481.6959113</v>
       </c>
       <c r="E13" t="n">
-        <v>2268654.779042579</v>
+        <v>28748794.64636954</v>
       </c>
       <c r="F13" t="n">
-        <v>-8347349.609614438</v>
+        <v>37607268.23576668</v>
       </c>
       <c r="G13" t="n">
-        <v>-4805292.768460506</v>
+        <v>45506375.97774921</v>
       </c>
       <c r="H13" t="n">
-        <v>20405340.9328772</v>
+        <v>44579533.84301115</v>
       </c>
       <c r="I13" t="n">
-        <v>7547032.259243634</v>
+        <v>40729128.75775246</v>
       </c>
       <c r="J13" t="n">
-        <v>-1946728.9234609</v>
+        <v>50283032.90655068</v>
       </c>
       <c r="K13" t="n">
-        <v>8420303.681259999</v>
+        <v>37491198.23232378</v>
       </c>
       <c r="L13" t="n">
-        <v>-4873394.23995294</v>
+        <v>34866947.55681153</v>
       </c>
       <c r="M13" t="n">
-        <v>-1767768.001266712</v>
+        <v>34348398.83239993</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-348214.7087142085</v>
+        <v>-101010.4530669581</v>
       </c>
       <c r="C14" t="n">
-        <v>249643.3781979459</v>
+        <v>9916664.159861194</v>
       </c>
       <c r="D14" t="n">
-        <v>-1961399.055559356</v>
+        <v>-6849004.201210023</v>
       </c>
       <c r="E14" t="n">
-        <v>-1287326.160703049</v>
+        <v>-2898414.4790293</v>
       </c>
       <c r="F14" t="n">
-        <v>-536963.9272702247</v>
+        <v>-1454925.403104508</v>
       </c>
       <c r="G14" t="n">
-        <v>-1438507.573915184</v>
+        <v>9386336.838016525</v>
       </c>
       <c r="H14" t="n">
-        <v>-139384.0743207856</v>
+        <v>12509103.76033736</v>
       </c>
       <c r="I14" t="n">
-        <v>-1247701.183386864</v>
+        <v>987840.0787549163</v>
       </c>
       <c r="J14" t="n">
-        <v>-1078792.551803122</v>
+        <v>-731513.2946689698</v>
       </c>
       <c r="K14" t="n">
-        <v>-1786047.517094821</v>
+        <v>3451565.101925014</v>
       </c>
       <c r="L14" t="n">
-        <v>-480649.4591788405</v>
+        <v>-7375832.234536082</v>
       </c>
       <c r="M14" t="n">
-        <v>-422270.4794919554</v>
+        <v>-1550496.731850778</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3912341.982287165</v>
+        <v>214316.7851035224</v>
       </c>
       <c r="C15" t="n">
-        <v>-1006007.39828952</v>
+        <v>1834059.4535189</v>
       </c>
       <c r="D15" t="n">
-        <v>3818341.066618165</v>
+        <v>8905305.964067856</v>
       </c>
       <c r="E15" t="n">
-        <v>-2956584.847761413</v>
+        <v>3981819.360610179</v>
       </c>
       <c r="F15" t="n">
-        <v>-2169418.76843271</v>
+        <v>1161577.710650577</v>
       </c>
       <c r="G15" t="n">
-        <v>-1605957.481641719</v>
+        <v>3740511.197268064</v>
       </c>
       <c r="H15" t="n">
-        <v>12601510.07122966</v>
+        <v>9558960.271917343</v>
       </c>
       <c r="I15" t="n">
-        <v>-1421488.023702143</v>
+        <v>5649875.843087675</v>
       </c>
       <c r="J15" t="n">
-        <v>-1105310.846905292</v>
+        <v>4291493.22733863</v>
       </c>
       <c r="K15" t="n">
-        <v>997795.0695272649</v>
+        <v>7533506.703427969</v>
       </c>
       <c r="L15" t="n">
-        <v>302395.5251408661</v>
+        <v>3661176.023382861</v>
       </c>
       <c r="M15" t="n">
-        <v>5755235.821308612</v>
+        <v>4459503.788039505</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1140097.015633895</v>
+        <v>10593170.36553114</v>
       </c>
       <c r="C16" t="n">
-        <v>598741.4319010597</v>
+        <v>2529910.726345289</v>
       </c>
       <c r="D16" t="n">
-        <v>-1230212.98526986</v>
+        <v>16848096.50879975</v>
       </c>
       <c r="E16" t="n">
-        <v>-911859.7988657113</v>
+        <v>17685122.45814448</v>
       </c>
       <c r="F16" t="n">
-        <v>-4609655.779408997</v>
+        <v>15115414.51498169</v>
       </c>
       <c r="G16" t="n">
-        <v>-4011641.311077012</v>
+        <v>11185475.32579318</v>
       </c>
       <c r="H16" t="n">
-        <v>26064212.51780197</v>
+        <v>4232607.945513737</v>
       </c>
       <c r="I16" t="n">
-        <v>-1047191.821909035</v>
+        <v>18944639.56017744</v>
       </c>
       <c r="J16" t="n">
-        <v>-1819380.744603654</v>
+        <v>12778468.45922492</v>
       </c>
       <c r="K16" t="n">
-        <v>-3307167.786541155</v>
+        <v>20055069.20016405</v>
       </c>
       <c r="L16" t="n">
-        <v>-4713273.499745407</v>
+        <v>16160898.63934687</v>
       </c>
       <c r="M16" t="n">
-        <v>7100808.206910789</v>
+        <v>19150764.31535172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3917888.524196908</v>
+        <v>3569491.900445308</v>
       </c>
       <c r="C17" t="n">
-        <v>1682780.189379758</v>
+        <v>3312851.811166453</v>
       </c>
       <c r="D17" t="n">
-        <v>12292945.02034469</v>
+        <v>2458099.906523853</v>
       </c>
       <c r="E17" t="n">
-        <v>10937362.69846506</v>
+        <v>5811543.780203557</v>
       </c>
       <c r="F17" t="n">
-        <v>10568460.87775268</v>
+        <v>10997119.81450649</v>
       </c>
       <c r="G17" t="n">
-        <v>-20040681.88826391</v>
+        <v>7566117.934510836</v>
       </c>
       <c r="H17" t="n">
-        <v>26215896.15843368</v>
+        <v>2282664.875737554</v>
       </c>
       <c r="I17" t="n">
-        <v>18217892.20265112</v>
+        <v>9935487.264819304</v>
       </c>
       <c r="J17" t="n">
-        <v>16728423.45755213</v>
+        <v>6839822.187307687</v>
       </c>
       <c r="K17" t="n">
-        <v>3538147.067382195</v>
+        <v>10303642.51041133</v>
       </c>
       <c r="L17" t="n">
-        <v>4303448.540737239</v>
+        <v>4154548.078512174</v>
       </c>
       <c r="M17" t="n">
-        <v>-13302979.74012874</v>
+        <v>4822036.115170253</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-34800.2569429381</v>
+        <v>2286961.720919359</v>
       </c>
       <c r="C18" t="n">
-        <v>32279.64784545748</v>
+        <v>3645217.144021034</v>
       </c>
       <c r="D18" t="n">
-        <v>3613.657358543193</v>
+        <v>2101046.742180982</v>
       </c>
       <c r="E18" t="n">
-        <v>-60440.51311931962</v>
+        <v>3746878.934634093</v>
       </c>
       <c r="F18" t="n">
-        <v>-69694.76926967653</v>
+        <v>5525506.729936529</v>
       </c>
       <c r="G18" t="n">
-        <v>-216931.7762220782</v>
+        <v>2615439.375753273</v>
       </c>
       <c r="H18" t="n">
-        <v>-90604.47122654959</v>
+        <v>4289273.401515769</v>
       </c>
       <c r="I18" t="n">
-        <v>-164428.3192123891</v>
+        <v>4498668.894000025</v>
       </c>
       <c r="J18" t="n">
-        <v>-366313.6798773664</v>
+        <v>3293858.243587099</v>
       </c>
       <c r="K18" t="n">
-        <v>-296471.3368657452</v>
+        <v>2631922.330256865</v>
       </c>
       <c r="L18" t="n">
-        <v>-778290.5164797266</v>
+        <v>4383350.938540225</v>
       </c>
       <c r="M18" t="n">
-        <v>-1346155.719472177</v>
+        <v>3039015.2821092</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-19605.38724963578</v>
+        <v>5273069.399960984</v>
       </c>
       <c r="C19" t="n">
-        <v>-46791.99657145314</v>
+        <v>6863273.084975883</v>
       </c>
       <c r="D19" t="n">
-        <v>-76072.7148803251</v>
+        <v>4003229.197408442</v>
       </c>
       <c r="E19" t="n">
-        <v>-63209.08930120012</v>
+        <v>3371369.960333322</v>
       </c>
       <c r="F19" t="n">
-        <v>-86907.09281118761</v>
+        <v>6553522.185902164</v>
       </c>
       <c r="G19" t="n">
-        <v>-52701.61288587244</v>
+        <v>5742363.029850475</v>
       </c>
       <c r="H19" t="n">
-        <v>-65009.31283941606</v>
+        <v>6995128.876279476</v>
       </c>
       <c r="I19" t="n">
-        <v>-37670.18843869732</v>
+        <v>4807494.963584758</v>
       </c>
       <c r="J19" t="n">
-        <v>-342386.5378344057</v>
+        <v>7448528.29282782</v>
       </c>
       <c r="K19" t="n">
-        <v>-89199.934157332</v>
+        <v>5762722.770288665</v>
       </c>
       <c r="L19" t="n">
-        <v>-35841.13908262279</v>
+        <v>8620038.011867778</v>
       </c>
       <c r="M19" t="n">
-        <v>-176545.0287006735</v>
+        <v>2891633.915440288</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1288881.068299099</v>
+        <v>1691361.418671221</v>
       </c>
       <c r="C20" t="n">
-        <v>2335241.779709809</v>
+        <v>1232083.831831557</v>
       </c>
       <c r="D20" t="n">
-        <v>2271836.809338474</v>
+        <v>1634405.682975626</v>
       </c>
       <c r="E20" t="n">
-        <v>2562981.571325967</v>
+        <v>1217887.152469503</v>
       </c>
       <c r="F20" t="n">
-        <v>1796698.74390275</v>
+        <v>2209236.287874199</v>
       </c>
       <c r="G20" t="n">
-        <v>2313941.850478006</v>
+        <v>1200883.345033041</v>
       </c>
       <c r="H20" t="n">
-        <v>2314652.930645459</v>
+        <v>735333.1402680503</v>
       </c>
       <c r="I20" t="n">
-        <v>2246936.591925022</v>
+        <v>1166362.929077419</v>
       </c>
       <c r="J20" t="n">
-        <v>1948613.36041839</v>
+        <v>1154195.759413565</v>
       </c>
       <c r="K20" t="n">
-        <v>2542851.273710907</v>
+        <v>1286163.964920009</v>
       </c>
       <c r="L20" t="n">
-        <v>2312818.297675752</v>
+        <v>891621.8133888431</v>
       </c>
       <c r="M20" t="n">
-        <v>3272003.692018728</v>
+        <v>689505.0479972339</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>831525.5068132357</v>
+        <v>2338285.672794571</v>
       </c>
       <c r="C21" t="n">
-        <v>2181608.539478954</v>
+        <v>3054939.324630602</v>
       </c>
       <c r="D21" t="n">
-        <v>1725542.715384583</v>
+        <v>2945735.078469126</v>
       </c>
       <c r="E21" t="n">
-        <v>2630835.191653468</v>
+        <v>4174897.259791253</v>
       </c>
       <c r="F21" t="n">
-        <v>1180944.230784165</v>
+        <v>3685056.285186534</v>
       </c>
       <c r="G21" t="n">
-        <v>2103065.180007365</v>
+        <v>2311036.072112593</v>
       </c>
       <c r="H21" t="n">
-        <v>2378291.761580532</v>
+        <v>2743088.878051877</v>
       </c>
       <c r="I21" t="n">
-        <v>812795.7951012021</v>
+        <v>2729808.724207735</v>
       </c>
       <c r="J21" t="n">
-        <v>1367637.260236804</v>
+        <v>4974358.244352132</v>
       </c>
       <c r="K21" t="n">
-        <v>2734378.715848634</v>
+        <v>3338084.135857276</v>
       </c>
       <c r="L21" t="n">
-        <v>1172811.157335121</v>
+        <v>3737541.535193091</v>
       </c>
       <c r="M21" t="n">
-        <v>1521625.899673909</v>
+        <v>3235109.350380606</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2667760.471395633</v>
+        <v>12387970.25896491</v>
       </c>
       <c r="C22" t="n">
-        <v>2585599.581579803</v>
+        <v>11514098.53131959</v>
       </c>
       <c r="D22" t="n">
-        <v>2992549.291779532</v>
+        <v>15991503.08514752</v>
       </c>
       <c r="E22" t="n">
-        <v>2460329.031752328</v>
+        <v>11460716.19186241</v>
       </c>
       <c r="F22" t="n">
-        <v>1601216.952465044</v>
+        <v>13329723.73861698</v>
       </c>
       <c r="G22" t="n">
-        <v>1300127.360999507</v>
+        <v>13879744.6825642</v>
       </c>
       <c r="H22" t="n">
-        <v>508954.0092824274</v>
+        <v>12198216.92462677</v>
       </c>
       <c r="I22" t="n">
-        <v>-75627.54156736736</v>
+        <v>12924139.88493541</v>
       </c>
       <c r="J22" t="n">
-        <v>-587316.0338610071</v>
+        <v>18688218.04619575</v>
       </c>
       <c r="K22" t="n">
-        <v>-511739.2251568512</v>
+        <v>15061262.51746879</v>
       </c>
       <c r="L22" t="n">
-        <v>2268521.811829226</v>
+        <v>17461575.0522434</v>
       </c>
       <c r="M22" t="n">
-        <v>3960572.776153995</v>
+        <v>10718431.84622956</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-752.1630706509352</v>
+        <v>2006886.579101599</v>
       </c>
       <c r="C23" t="n">
-        <v>1107.791472588826</v>
+        <v>3929215.310579757</v>
       </c>
       <c r="D23" t="n">
-        <v>-873.9013204987693</v>
+        <v>3926633.397071211</v>
       </c>
       <c r="E23" t="n">
-        <v>-610.7912124893919</v>
+        <v>2930519.97997018</v>
       </c>
       <c r="F23" t="n">
-        <v>4913.19011696977</v>
+        <v>4362748.31828192</v>
       </c>
       <c r="G23" t="n">
-        <v>-354.7653111454058</v>
+        <v>4379728.929324503</v>
       </c>
       <c r="H23" t="n">
-        <v>-219.1714482564314</v>
+        <v>12678560.13204704</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1381453535542244</v>
+        <v>8492970.62625251</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.2386360963447597</v>
+        <v>3623995.612462736</v>
       </c>
       <c r="K23" t="n">
-        <v>292.3723228286016</v>
+        <v>3669824.553142411</v>
       </c>
       <c r="L23" t="n">
-        <v>1172.982309206563</v>
+        <v>5206035.067729332</v>
       </c>
       <c r="M23" t="n">
-        <v>22876.24761371525</v>
+        <v>2792076.949824966</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7382703.855885884</v>
+        <v>11914781.50070931</v>
       </c>
       <c r="C24" t="n">
-        <v>10984318.17403377</v>
+        <v>13905571.330151</v>
       </c>
       <c r="D24" t="n">
-        <v>13878796.05980425</v>
+        <v>13292056.68482844</v>
       </c>
       <c r="E24" t="n">
-        <v>11340532.50129654</v>
+        <v>8558781.019215465</v>
       </c>
       <c r="F24" t="n">
-        <v>11384426.86965326</v>
+        <v>10517367.50153423</v>
       </c>
       <c r="G24" t="n">
-        <v>10992859.62889616</v>
+        <v>10589986.13225983</v>
       </c>
       <c r="H24" t="n">
-        <v>13118502.35969994</v>
+        <v>8600667.096944558</v>
       </c>
       <c r="I24" t="n">
-        <v>9007701.693650417</v>
+        <v>13481351.83139167</v>
       </c>
       <c r="J24" t="n">
-        <v>12791491.2280748</v>
+        <v>11834123.32466867</v>
       </c>
       <c r="K24" t="n">
-        <v>10006449.1427219</v>
+        <v>9687148.997231513</v>
       </c>
       <c r="L24" t="n">
-        <v>10794984.28554035</v>
+        <v>21049960.38258229</v>
       </c>
       <c r="M24" t="n">
-        <v>15265655.47462371</v>
+        <v>7852527.336378027</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>912423.1359371182</v>
+        <v>4325168.858263904</v>
       </c>
       <c r="C25" t="n">
-        <v>3064057.346761462</v>
+        <v>6405003.043432924</v>
       </c>
       <c r="D25" t="n">
-        <v>2481058.244799286</v>
+        <v>4726564.134970816</v>
       </c>
       <c r="E25" t="n">
-        <v>2834635.630962974</v>
+        <v>3301886.01063343</v>
       </c>
       <c r="F25" t="n">
-        <v>2304773.032802965</v>
+        <v>4157513.877169858</v>
       </c>
       <c r="G25" t="n">
-        <v>4032707.179694515</v>
+        <v>5785249.318797312</v>
       </c>
       <c r="H25" t="n">
-        <v>2692529.021991043</v>
+        <v>3911343.446009253</v>
       </c>
       <c r="I25" t="n">
-        <v>2804975.321724333</v>
+        <v>7241759.211785562</v>
       </c>
       <c r="J25" t="n">
-        <v>2582452.016704764</v>
+        <v>6205198.99366445</v>
       </c>
       <c r="K25" t="n">
-        <v>3358277.429452984</v>
+        <v>4966420.598992229</v>
       </c>
       <c r="L25" t="n">
-        <v>3301725.091801411</v>
+        <v>5753440.530409719</v>
       </c>
       <c r="M25" t="n">
-        <v>3203037.906995234</v>
+        <v>4091072.600119292</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8052960.776773347</v>
+        <v>11654001.63405833</v>
       </c>
       <c r="C26" t="n">
-        <v>9744151.318332167</v>
+        <v>14591746.55961425</v>
       </c>
       <c r="D26" t="n">
-        <v>9697170.387080438</v>
+        <v>10129080.77240715</v>
       </c>
       <c r="E26" t="n">
-        <v>20995687.41263236</v>
+        <v>9715333.31579555</v>
       </c>
       <c r="F26" t="n">
-        <v>13229362.58552406</v>
+        <v>11401742.06281866</v>
       </c>
       <c r="G26" t="n">
-        <v>18155622.61404334</v>
+        <v>13566198.84749526</v>
       </c>
       <c r="H26" t="n">
-        <v>11750860.76833839</v>
+        <v>16585313.93771206</v>
       </c>
       <c r="I26" t="n">
-        <v>15850438.85937137</v>
+        <v>14149962.84264634</v>
       </c>
       <c r="J26" t="n">
-        <v>14605949.30593418</v>
+        <v>12855802.47731381</v>
       </c>
       <c r="K26" t="n">
-        <v>14925695.73207992</v>
+        <v>8838355.363091128</v>
       </c>
       <c r="L26" t="n">
-        <v>8943670.109776575</v>
+        <v>16096517.37164828</v>
       </c>
       <c r="M26" t="n">
-        <v>17806347.35867947</v>
+        <v>12205203.28966426</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15680434.3701867</v>
+        <v>6491498.384259846</v>
       </c>
       <c r="C27" t="n">
-        <v>9736655.637673456</v>
+        <v>6605866.568382687</v>
       </c>
       <c r="D27" t="n">
-        <v>11658167.81791255</v>
+        <v>5944425.875684593</v>
       </c>
       <c r="E27" t="n">
-        <v>19082530.96326873</v>
+        <v>2988117.383898929</v>
       </c>
       <c r="F27" t="n">
-        <v>12509897.14944211</v>
+        <v>4364596.516842853</v>
       </c>
       <c r="G27" t="n">
-        <v>17634209.19840517</v>
+        <v>8123394.738234213</v>
       </c>
       <c r="H27" t="n">
-        <v>21414113.09321819</v>
+        <v>5450990.226675063</v>
       </c>
       <c r="I27" t="n">
-        <v>20486845.43472847</v>
+        <v>4263228.651084726</v>
       </c>
       <c r="J27" t="n">
-        <v>26728571.15936937</v>
+        <v>5742318.66232946</v>
       </c>
       <c r="K27" t="n">
-        <v>15075999.18283766</v>
+        <v>3809103.265371086</v>
       </c>
       <c r="L27" t="n">
-        <v>19803058.85210602</v>
+        <v>7157616.170788052</v>
       </c>
       <c r="M27" t="n">
-        <v>37937620.32651395</v>
+        <v>5262711.751188003</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-941694.8076778384</v>
+        <v>14784769.23967572</v>
       </c>
       <c r="C28" t="n">
-        <v>-14294346.95568887</v>
+        <v>10123181.88748031</v>
       </c>
       <c r="D28" t="n">
-        <v>-22821272.85595611</v>
+        <v>14309407.85004999</v>
       </c>
       <c r="E28" t="n">
-        <v>34888140.7450361</v>
+        <v>8982403.708547324</v>
       </c>
       <c r="F28" t="n">
-        <v>905718.6680936677</v>
+        <v>14276651.15996584</v>
       </c>
       <c r="G28" t="n">
-        <v>61481491.09636469</v>
+        <v>22585241.40733204</v>
       </c>
       <c r="H28" t="n">
-        <v>43961484.79128027</v>
+        <v>13628799.59068234</v>
       </c>
       <c r="I28" t="n">
-        <v>40578499.62351689</v>
+        <v>8348062.65872593</v>
       </c>
       <c r="J28" t="n">
-        <v>50676154.64841927</v>
+        <v>6908599.284308901</v>
       </c>
       <c r="K28" t="n">
-        <v>45515307.72882438</v>
+        <v>13330106.1917812</v>
       </c>
       <c r="L28" t="n">
-        <v>289295.2973608737</v>
+        <v>22935791.01374344</v>
       </c>
       <c r="M28" t="n">
-        <v>9050036.047234727</v>
+        <v>10752112.63380197</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>35969280.33302389</v>
+        <v>841371.3612614761</v>
       </c>
       <c r="C29" t="n">
-        <v>-4105499.222464797</v>
+        <v>490792.2957585393</v>
       </c>
       <c r="D29" t="n">
-        <v>-18622163.5532546</v>
+        <v>3258533.999228756</v>
       </c>
       <c r="E29" t="n">
-        <v>77034156.83686341</v>
+        <v>1578794.702889737</v>
       </c>
       <c r="F29" t="n">
-        <v>12223168.60522438</v>
+        <v>5031695.280119024</v>
       </c>
       <c r="G29" t="n">
-        <v>-12751779.91554972</v>
+        <v>2226156.528199869</v>
       </c>
       <c r="H29" t="n">
-        <v>11700325.37138876</v>
+        <v>4718310.143170022</v>
       </c>
       <c r="I29" t="n">
-        <v>14598034.96791587</v>
+        <v>4663678.44192302</v>
       </c>
       <c r="J29" t="n">
-        <v>41948438.91637307</v>
+        <v>1275426.540451649</v>
       </c>
       <c r="K29" t="n">
-        <v>57063774.48039892</v>
+        <v>1831410.285552884</v>
       </c>
       <c r="L29" t="n">
-        <v>50236284.00171183</v>
+        <v>1646689.655401273</v>
       </c>
       <c r="M29" t="n">
-        <v>203660.9656509483</v>
+        <v>3955458.112248311</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>36964413.95001297</v>
+        <v>1133537.975148352</v>
       </c>
       <c r="C30" t="n">
-        <v>33823481.2608169</v>
+        <v>-59231.5821861497</v>
       </c>
       <c r="D30" t="n">
-        <v>43864053.73423411</v>
+        <v>1809007.945335145</v>
       </c>
       <c r="E30" t="n">
-        <v>34567925.28581121</v>
+        <v>1231840.775029554</v>
       </c>
       <c r="F30" t="n">
-        <v>29456821.49497218</v>
+        <v>643509.3824658146</v>
       </c>
       <c r="G30" t="n">
-        <v>41034371.25047832</v>
+        <v>1167974.773770631</v>
       </c>
       <c r="H30" t="n">
-        <v>53130973.09327123</v>
+        <v>876765.524247108</v>
       </c>
       <c r="I30" t="n">
-        <v>43897998.70135528</v>
+        <v>190420.2429640759</v>
       </c>
       <c r="J30" t="n">
-        <v>49613583.22128346</v>
+        <v>552089.3408476878</v>
       </c>
       <c r="K30" t="n">
-        <v>47636820.4962815</v>
+        <v>436641.0002904553</v>
       </c>
       <c r="L30" t="n">
-        <v>45225207.28669383</v>
+        <v>2909409.237435612</v>
       </c>
       <c r="M30" t="n">
-        <v>42103332.94447285</v>
+        <v>1014759.893212651</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30470695.2744296</v>
+        <v>840765.2427787621</v>
       </c>
       <c r="C31" t="n">
-        <v>33485267.84699337</v>
+        <v>1692253.011356443</v>
       </c>
       <c r="D31" t="n">
-        <v>36961949.72778668</v>
+        <v>1744068.755960355</v>
       </c>
       <c r="E31" t="n">
-        <v>35846116.44770715</v>
+        <v>848327.7603501951</v>
       </c>
       <c r="F31" t="n">
-        <v>29185863.94853068</v>
+        <v>283119.4534136349</v>
       </c>
       <c r="G31" t="n">
-        <v>38227765.93927981</v>
+        <v>513652.5701871121</v>
       </c>
       <c r="H31" t="n">
-        <v>46242824.76662138</v>
+        <v>391345.7117036326</v>
       </c>
       <c r="I31" t="n">
-        <v>45241342.20062704</v>
+        <v>987972.903966314</v>
       </c>
       <c r="J31" t="n">
-        <v>41248851.39955559</v>
+        <v>1594048.846128453</v>
       </c>
       <c r="K31" t="n">
-        <v>50949728.13844771</v>
+        <v>2087250.655998089</v>
       </c>
       <c r="L31" t="n">
-        <v>37882724.47966236</v>
+        <v>1870564.691502075</v>
       </c>
       <c r="M31" t="n">
-        <v>35202201.52792884</v>
+        <v>-114051.9337104532</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-117288.0079143099</v>
+        <v>1732374.564500991</v>
       </c>
       <c r="C32" t="n">
-        <v>1203140.715872165</v>
+        <v>1589012.00390317</v>
       </c>
       <c r="D32" t="n">
-        <v>2366060.188812267</v>
+        <v>2873367.657058779</v>
       </c>
       <c r="E32" t="n">
-        <v>1719628.718637469</v>
+        <v>1958676.087179103</v>
       </c>
       <c r="F32" t="n">
-        <v>894155.3111701515</v>
+        <v>2926659.742857633</v>
       </c>
       <c r="G32" t="n">
-        <v>5171893.9905054</v>
+        <v>1565054.321002194</v>
       </c>
       <c r="H32" t="n">
-        <v>623185.4349952409</v>
+        <v>1445657.303515389</v>
       </c>
       <c r="I32" t="n">
-        <v>1496932.04861055</v>
+        <v>2918767.469983747</v>
       </c>
       <c r="J32" t="n">
-        <v>-72124.9051104492</v>
+        <v>2514634.211685589</v>
       </c>
       <c r="K32" t="n">
-        <v>6661409.996448883</v>
+        <v>2268127.175165144</v>
       </c>
       <c r="L32" t="n">
-        <v>9336858.165018884</v>
+        <v>2253074.523725441</v>
       </c>
       <c r="M32" t="n">
-        <v>-6830044.333104845</v>
+        <v>1682662.641863969</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3681482.928702959</v>
+        <v>1576651.386949815</v>
       </c>
       <c r="C33" t="n">
-        <v>423282.9693124206</v>
+        <v>3373809.760355855</v>
       </c>
       <c r="D33" t="n">
-        <v>1665213.32845733</v>
+        <v>1290241.998167278</v>
       </c>
       <c r="E33" t="n">
-        <v>8865779.271419205</v>
+        <v>2139701.68194101</v>
       </c>
       <c r="F33" t="n">
-        <v>4018930.552075254</v>
+        <v>4234015.454966865</v>
       </c>
       <c r="G33" t="n">
-        <v>1267822.137518672</v>
+        <v>5101226.843457421</v>
       </c>
       <c r="H33" t="n">
-        <v>3812103.523619995</v>
+        <v>4324229.243493987</v>
       </c>
       <c r="I33" t="n">
-        <v>9459572.049030161</v>
+        <v>2226861.350249186</v>
       </c>
       <c r="J33" t="n">
-        <v>5568169.791024184</v>
+        <v>3751444.68844086</v>
       </c>
       <c r="K33" t="n">
-        <v>4197656.778937553</v>
+        <v>3305272.614581903</v>
       </c>
       <c r="L33" t="n">
-        <v>7307102.064432025</v>
+        <v>3085730.254182217</v>
       </c>
       <c r="M33" t="n">
-        <v>3474604.740243067</v>
+        <v>3378033.961852825</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19942100.27296332</v>
+        <v>2042714.141568659</v>
       </c>
       <c r="C34" t="n">
-        <v>6740127.832457191</v>
+        <v>2790564.668382142</v>
       </c>
       <c r="D34" t="n">
-        <v>6471360.633511656</v>
+        <v>2648359.225083601</v>
       </c>
       <c r="E34" t="n">
-        <v>17244505.81142075</v>
+        <v>2400384.892446165</v>
       </c>
       <c r="F34" t="n">
-        <v>16187167.52931749</v>
+        <v>2861811.889643169</v>
       </c>
       <c r="G34" t="n">
-        <v>13078580.0422395</v>
+        <v>3250771.009400955</v>
       </c>
       <c r="H34" t="n">
-        <v>9633649.601292564</v>
+        <v>4537999.720834426</v>
       </c>
       <c r="I34" t="n">
-        <v>3900144.554415717</v>
+        <v>2182424.449091611</v>
       </c>
       <c r="J34" t="n">
-        <v>19929061.86252038</v>
+        <v>4371501.830400983</v>
       </c>
       <c r="K34" t="n">
-        <v>14981909.37155761</v>
+        <v>2653007.540355049</v>
       </c>
       <c r="L34" t="n">
-        <v>23042720.79017416</v>
+        <v>3413436.748348354</v>
       </c>
       <c r="M34" t="n">
-        <v>19469355.68715083</v>
+        <v>2763978.66818229</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5602401.359607376</v>
+        <v>1523608.134795092</v>
       </c>
       <c r="C35" t="n">
-        <v>3055963.338428248</v>
+        <v>2455608.847376501</v>
       </c>
       <c r="D35" t="n">
-        <v>3937526.519179957</v>
+        <v>2154706.577640191</v>
       </c>
       <c r="E35" t="n">
-        <v>2549917.776711487</v>
+        <v>1944929.977389839</v>
       </c>
       <c r="F35" t="n">
-        <v>5602892.476206486</v>
+        <v>2726131.368196136</v>
       </c>
       <c r="G35" t="n">
-        <v>10672283.72025415</v>
+        <v>3031859.78567265</v>
       </c>
       <c r="H35" t="n">
-        <v>7271342.510462015</v>
+        <v>1904496.220969031</v>
       </c>
       <c r="I35" t="n">
-        <v>2210449.935555409</v>
+        <v>2069856.072739537</v>
       </c>
       <c r="J35" t="n">
-        <v>10070480.5073032</v>
+        <v>3611125.274491808</v>
       </c>
       <c r="K35" t="n">
-        <v>7214321.643695641</v>
+        <v>2768768.194235581</v>
       </c>
       <c r="L35" t="n">
-        <v>10788546.72038407</v>
+        <v>1596147.440957921</v>
       </c>
       <c r="M35" t="n">
-        <v>4757148.437927588</v>
+        <v>1939650.462282914</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3674419.626303739</v>
+        <v>1984824.044242081</v>
       </c>
       <c r="C36" t="n">
-        <v>2297431.196936951</v>
+        <v>1821504.248594551</v>
       </c>
       <c r="D36" t="n">
-        <v>3708771.746775787</v>
+        <v>1350593.170421196</v>
       </c>
       <c r="E36" t="n">
-        <v>2118515.263716633</v>
+        <v>1570566.430300043</v>
       </c>
       <c r="F36" t="n">
-        <v>3789400.255021692</v>
+        <v>2207337.552354478</v>
       </c>
       <c r="G36" t="n">
-        <v>5576461.621004971</v>
+        <v>1960001.669990506</v>
       </c>
       <c r="H36" t="n">
-        <v>2599626.295659237</v>
+        <v>1203612.996594653</v>
       </c>
       <c r="I36" t="n">
-        <v>4314341.525647891</v>
+        <v>1217474.438210509</v>
       </c>
       <c r="J36" t="n">
-        <v>4542290.70138154</v>
+        <v>1531124.104449998</v>
       </c>
       <c r="K36" t="n">
-        <v>3329376.94511039</v>
+        <v>1023070.067924282</v>
       </c>
       <c r="L36" t="n">
-        <v>2672037.744041504</v>
+        <v>1468781.819441507</v>
       </c>
       <c r="M36" t="n">
-        <v>4459333.841650721</v>
+        <v>1361818.87298212</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3701102.345108661</v>
+        <v>3007629.691768476</v>
       </c>
       <c r="C37" t="n">
-        <v>5458754.385180401</v>
+        <v>5160142.17685031</v>
       </c>
       <c r="D37" t="n">
-        <v>6491929.59436765</v>
+        <v>3233159.487173889</v>
       </c>
       <c r="E37" t="n">
-        <v>3849266.667552442</v>
+        <v>2949874.934644447</v>
       </c>
       <c r="F37" t="n">
-        <v>3358850.756759572</v>
+        <v>5191309.981226266</v>
       </c>
       <c r="G37" t="n">
-        <v>6560215.360087928</v>
+        <v>5332754.388034896</v>
       </c>
       <c r="H37" t="n">
-        <v>5757167.853564932</v>
+        <v>4972608.260087298</v>
       </c>
       <c r="I37" t="n">
-        <v>6946792.672460773</v>
+        <v>4090630.415775314</v>
       </c>
       <c r="J37" t="n">
-        <v>4740073.088521381</v>
+        <v>5095917.058825227</v>
       </c>
       <c r="K37" t="n">
-        <v>7208649.932391962</v>
+        <v>4640626.102801227</v>
       </c>
       <c r="L37" t="n">
-        <v>5447171.296754972</v>
+        <v>4143933.342608501</v>
       </c>
       <c r="M37" t="n">
-        <v>8148645.838178921</v>
+        <v>3406917.140270255</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3189138.163312923</v>
+        <v>4103580.064699797</v>
       </c>
       <c r="C38" t="n">
-        <v>3261465.16288768</v>
+        <v>3673528.183047085</v>
       </c>
       <c r="D38" t="n">
-        <v>2833805.252157167</v>
+        <v>3882598.147020421</v>
       </c>
       <c r="E38" t="n">
-        <v>2865239.518287607</v>
+        <v>4758049.714308734</v>
       </c>
       <c r="F38" t="n">
-        <v>3013908.92695378</v>
+        <v>4920008.197396453</v>
       </c>
       <c r="G38" t="n">
-        <v>4546320.212724494</v>
+        <v>5042165.434176746</v>
       </c>
       <c r="H38" t="n">
-        <v>2943113.41183283</v>
+        <v>4787584.690643878</v>
       </c>
       <c r="I38" t="n">
-        <v>1859509.517407139</v>
+        <v>5789550.234653552</v>
       </c>
       <c r="J38" t="n">
-        <v>2884702.509945218</v>
+        <v>5070230.186443867</v>
       </c>
       <c r="K38" t="n">
-        <v>3481267.372830058</v>
+        <v>4979270.688545441</v>
       </c>
       <c r="L38" t="n">
-        <v>4058593.535653321</v>
+        <v>5760426.702262424</v>
       </c>
       <c r="M38" t="n">
-        <v>3118229.650698337</v>
+        <v>4477830.500591701</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2941770.217403123</v>
+        <v>2313944.5500387</v>
       </c>
       <c r="C39" t="n">
-        <v>2299898.386712033</v>
+        <v>3435204.966400314</v>
       </c>
       <c r="D39" t="n">
-        <v>3124512.551634676</v>
+        <v>4866480.987002829</v>
       </c>
       <c r="E39" t="n">
-        <v>2988135.521337469</v>
+        <v>5863024.362170804</v>
       </c>
       <c r="F39" t="n">
-        <v>4200905.821450779</v>
+        <v>6703646.987258605</v>
       </c>
       <c r="G39" t="n">
-        <v>3693848.236561259</v>
+        <v>6636597.835571551</v>
       </c>
       <c r="H39" t="n">
-        <v>2299145.575007224</v>
+        <v>5314187.540926379</v>
       </c>
       <c r="I39" t="n">
-        <v>2744292.002635767</v>
+        <v>6242754.087207585</v>
       </c>
       <c r="J39" t="n">
-        <v>2746778.85636517</v>
+        <v>6670050.460483829</v>
       </c>
       <c r="K39" t="n">
-        <v>5039346.947847703</v>
+        <v>5146461.311050626</v>
       </c>
       <c r="L39" t="n">
-        <v>3409185.661544018</v>
+        <v>4788197.570131538</v>
       </c>
       <c r="M39" t="n">
-        <v>3826918.532608652</v>
+        <v>4510648.352536796</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11849708.20366396</v>
+        <v>3798955.209520484</v>
       </c>
       <c r="C40" t="n">
-        <v>11978582.16533989</v>
+        <v>4438778.771622866</v>
       </c>
       <c r="D40" t="n">
-        <v>12048847.58202148</v>
+        <v>6006601.088240324</v>
       </c>
       <c r="E40" t="n">
-        <v>16433867.69111197</v>
+        <v>5067688.311361074</v>
       </c>
       <c r="F40" t="n">
-        <v>11481864.56260688</v>
+        <v>5750588.449747261</v>
       </c>
       <c r="G40" t="n">
-        <v>13254128.29499616</v>
+        <v>5182923.966888609</v>
       </c>
       <c r="H40" t="n">
-        <v>13807477.62951926</v>
+        <v>6098937.829897476</v>
       </c>
       <c r="I40" t="n">
-        <v>12183169.87785771</v>
+        <v>5230457.603789579</v>
       </c>
       <c r="J40" t="n">
-        <v>13097492.32782818</v>
+        <v>5875000.750252469</v>
       </c>
       <c r="K40" t="n">
-        <v>19166786.93694336</v>
+        <v>5106691.616657935</v>
       </c>
       <c r="L40" t="n">
-        <v>15656297.30311998</v>
+        <v>5751178.818188154</v>
       </c>
       <c r="M40" t="n">
-        <v>18213722.78336703</v>
+        <v>4534092.388732965</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2771729.707514281</v>
+        <v>1946241.556327072</v>
       </c>
       <c r="C41" t="n">
-        <v>1971361.280898578</v>
+        <v>3051924.4480483</v>
       </c>
       <c r="D41" t="n">
-        <v>3774595.508607407</v>
+        <v>2820311.216458909</v>
       </c>
       <c r="E41" t="n">
-        <v>3791087.482639888</v>
+        <v>2798336.588323371</v>
       </c>
       <c r="F41" t="n">
-        <v>2858691.365261654</v>
+        <v>3369557.873210178</v>
       </c>
       <c r="G41" t="n">
-        <v>4252662.424981773</v>
+        <v>3740947.342589684</v>
       </c>
       <c r="H41" t="n">
-        <v>4285725.490842248</v>
+        <v>3484552.79504521</v>
       </c>
       <c r="I41" t="n">
-        <v>12310345.53446753</v>
+        <v>3431669.199868943</v>
       </c>
       <c r="J41" t="n">
-        <v>8252414.549870777</v>
+        <v>3950536.713357827</v>
       </c>
       <c r="K41" t="n">
-        <v>3514295.284327163</v>
+        <v>2991387.926504537</v>
       </c>
       <c r="L41" t="n">
-        <v>3539351.389339763</v>
+        <v>3860190.51878901</v>
       </c>
       <c r="M41" t="n">
-        <v>4998246.589983459</v>
+        <v>2943202.162876243</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>6035297.993790904</v>
+        <v>3281199.063345105</v>
       </c>
       <c r="C42" t="n">
-        <v>12275075.61137182</v>
+        <v>4233133.13976539</v>
       </c>
       <c r="D42" t="n">
-        <v>13315813.33132827</v>
+        <v>3863889.197429587</v>
       </c>
       <c r="E42" t="n">
-        <v>13054081.04977388</v>
+        <v>3534982.071484428</v>
       </c>
       <c r="F42" t="n">
-        <v>8617452.110892702</v>
+        <v>4118332.035817204</v>
       </c>
       <c r="G42" t="n">
-        <v>10632627.10424612</v>
+        <v>5044516.08439298</v>
       </c>
       <c r="H42" t="n">
-        <v>10675084.54757244</v>
+        <v>4620877.859806289</v>
       </c>
       <c r="I42" t="n">
-        <v>8650206.686472151</v>
+        <v>5131994.810598505</v>
       </c>
       <c r="J42" t="n">
-        <v>13337647.22869463</v>
+        <v>5262539.915566064</v>
       </c>
       <c r="K42" t="n">
-        <v>11544356.7671049</v>
+        <v>4601426.394155708</v>
       </c>
       <c r="L42" t="n">
-        <v>9222107.20046564</v>
+        <v>4489466.097679652</v>
       </c>
       <c r="M42" t="n">
-        <v>20310254.67851328</v>
+        <v>2938659.437841231</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3184795.332822351</v>
+        <v>1766119.571949576</v>
       </c>
       <c r="C43" t="n">
-        <v>4481643.759762971</v>
+        <v>3254114.257182465</v>
       </c>
       <c r="D43" t="n">
-        <v>6392555.527565169</v>
+        <v>2351309.96300132</v>
       </c>
       <c r="E43" t="n">
-        <v>4744224.998384589</v>
+        <v>2792371.787656551</v>
       </c>
       <c r="F43" t="n">
-        <v>3336417.945635445</v>
+        <v>3314773.576905423</v>
       </c>
       <c r="G43" t="n">
-        <v>4214086.653163432</v>
+        <v>3220210.919471633</v>
       </c>
       <c r="H43" t="n">
-        <v>5859095.758700784</v>
+        <v>3150536.544799914</v>
       </c>
       <c r="I43" t="n">
-        <v>3948705.208470442</v>
+        <v>3392121.029264618</v>
       </c>
       <c r="J43" t="n">
-        <v>7278204.62188104</v>
+        <v>2807306.035310399</v>
       </c>
       <c r="K43" t="n">
-        <v>6204746.7627707</v>
+        <v>3260569.486376063</v>
       </c>
       <c r="L43" t="n">
-        <v>4926103.890972019</v>
+        <v>3225607.618519526</v>
       </c>
       <c r="M43" t="n">
-        <v>5705483.519633514</v>
+        <v>2455323.085013925</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>9410643.323701641</v>
+        <v>3934237.310765392</v>
       </c>
       <c r="C44" t="n">
-        <v>11355938.1230437</v>
+        <v>5172439.387463508</v>
       </c>
       <c r="D44" t="n">
-        <v>14780272.12393247</v>
+        <v>4696854.203061035</v>
       </c>
       <c r="E44" t="n">
-        <v>10194403.16602424</v>
+        <v>4496895.925990037</v>
       </c>
       <c r="F44" t="n">
-        <v>9669975.383954259</v>
+        <v>5830015.865478437</v>
       </c>
       <c r="G44" t="n">
-        <v>11327788.37290907</v>
+        <v>6734464.433727888</v>
       </c>
       <c r="H44" t="n">
-        <v>13472479.21164674</v>
+        <v>5070850.44153957</v>
       </c>
       <c r="I44" t="n">
-        <v>16563297.47600106</v>
+        <v>6857627.709542771</v>
       </c>
       <c r="J44" t="n">
-        <v>14204520.66137985</v>
+        <v>6104619.246659046</v>
       </c>
       <c r="K44" t="n">
-        <v>12967329.1167501</v>
+        <v>5274708.691842563</v>
       </c>
       <c r="L44" t="n">
-        <v>9031857.393493939</v>
+        <v>6720185.961703393</v>
       </c>
       <c r="M44" t="n">
-        <v>16347522.19788944</v>
+        <v>4711194.296036939</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5257495.578825327</v>
+        <v>2623666.558021753</v>
       </c>
       <c r="C45" t="n">
-        <v>5550091.956951142</v>
+        <v>3282958.598449282</v>
       </c>
       <c r="D45" t="n">
-        <v>7035375.279490705</v>
+        <v>2921321.220127104</v>
       </c>
       <c r="E45" t="n">
-        <v>5975333.249728207</v>
+        <v>2412863.67345831</v>
       </c>
       <c r="F45" t="n">
-        <v>2824746.736400398</v>
+        <v>3159979.709967412</v>
       </c>
       <c r="G45" t="n">
-        <v>4050279.722153555</v>
+        <v>3452770.626312433</v>
       </c>
       <c r="H45" t="n">
-        <v>7737509.710816922</v>
+        <v>3030609.15386839</v>
       </c>
       <c r="I45" t="n">
-        <v>5296417.01524645</v>
+        <v>3864821.085246657</v>
       </c>
       <c r="J45" t="n">
-        <v>4324576.863265934</v>
+        <v>2851465.539267148</v>
       </c>
       <c r="K45" t="n">
-        <v>6033517.585520933</v>
+        <v>2894167.316536925</v>
       </c>
       <c r="L45" t="n">
-        <v>4333689.130844892</v>
+        <v>3113839.576199056</v>
       </c>
       <c r="M45" t="n">
-        <v>7722879.769737668</v>
+        <v>2878067.327739852</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>13195616.39002405</v>
+        <v>2044695.353919945</v>
       </c>
       <c r="C46" t="n">
-        <v>14583799.33503999</v>
+        <v>2210905.419733169</v>
       </c>
       <c r="D46" t="n">
-        <v>11379275.33463594</v>
+        <v>1993649.644575399</v>
       </c>
       <c r="E46" t="n">
-        <v>15106462.30362679</v>
+        <v>2566154.370024271</v>
       </c>
       <c r="F46" t="n">
-        <v>8977731.917013694</v>
+        <v>2247439.97122736</v>
       </c>
       <c r="G46" t="n">
-        <v>14328109.56188233</v>
+        <v>2386302.624030754</v>
       </c>
       <c r="H46" t="n">
-        <v>22970930.77639562</v>
+        <v>2499252.4572088</v>
       </c>
       <c r="I46" t="n">
-        <v>13952383.56253237</v>
+        <v>2279721.048245957</v>
       </c>
       <c r="J46" t="n">
-        <v>8486479.210001729</v>
+        <v>2612603.486387412</v>
       </c>
       <c r="K46" t="n">
-        <v>7335892.716468137</v>
+        <v>1892117.464169268</v>
       </c>
       <c r="L46" t="n">
-        <v>14446650.84711201</v>
+        <v>2419910.027958774</v>
       </c>
       <c r="M46" t="n">
-        <v>24849090.67259916</v>
+        <v>2189117.04340676</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2761273.242612306</v>
+        <v>510180.5538964796</v>
       </c>
       <c r="C47" t="n">
-        <v>444141.8757992029</v>
+        <v>861753.5359352233</v>
       </c>
       <c r="D47" t="n">
-        <v>834902.9597292161</v>
+        <v>1638823.089259005</v>
       </c>
       <c r="E47" t="n">
-        <v>3488842.530687975</v>
+        <v>2803003.860715492</v>
       </c>
       <c r="F47" t="n">
-        <v>1186157.988189267</v>
+        <v>2593878.924202805</v>
       </c>
       <c r="G47" t="n">
-        <v>4962611.799988538</v>
+        <v>3377241.974973365</v>
       </c>
       <c r="H47" t="n">
-        <v>2019711.331451945</v>
+        <v>2851272.276126328</v>
       </c>
       <c r="I47" t="n">
-        <v>4644207.678450439</v>
+        <v>2678377.770158307</v>
       </c>
       <c r="J47" t="n">
-        <v>4813032.04234765</v>
+        <v>2992932.143683823</v>
       </c>
       <c r="K47" t="n">
-        <v>1586632.879786002</v>
+        <v>1612230.756800644</v>
       </c>
       <c r="L47" t="n">
-        <v>2242072.707269528</v>
+        <v>1619850.96280588</v>
       </c>
       <c r="M47" t="n">
-        <v>2078348.303539229</v>
+        <v>2781306.964999609</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1289606.711014307</v>
+        <v>4557609.435051979</v>
       </c>
       <c r="C48" t="n">
-        <v>932144.1422365148</v>
+        <v>4946907.825124783</v>
       </c>
       <c r="D48" t="n">
-        <v>120834.5782995482</v>
+        <v>4496303.64160253</v>
       </c>
       <c r="E48" t="n">
-        <v>1895161.867998702</v>
+        <v>6567982.121273563</v>
       </c>
       <c r="F48" t="n">
-        <v>1159528.425379158</v>
+        <v>6385801.150462908</v>
       </c>
       <c r="G48" t="n">
-        <v>503328.8105403978</v>
+        <v>5074036.354218885</v>
       </c>
       <c r="H48" t="n">
-        <v>1036498.732080461</v>
+        <v>5806828.188862167</v>
       </c>
       <c r="I48" t="n">
-        <v>825450.9953230788</v>
+        <v>6524777.847833114</v>
       </c>
       <c r="J48" t="n">
-        <v>253290.9129331815</v>
+        <v>5737386.728811105</v>
       </c>
       <c r="K48" t="n">
-        <v>706148.4883576566</v>
+        <v>6118610.30747621</v>
       </c>
       <c r="L48" t="n">
-        <v>659110.1782240819</v>
+        <v>6233422.033222176</v>
       </c>
       <c r="M48" t="n">
-        <v>3091177.654372616</v>
+        <v>5839095.125232519</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>585622.1402596319</v>
+        <v>701188.3628036593</v>
       </c>
       <c r="C49" t="n">
-        <v>997211.9468944188</v>
+        <v>1349445.520175389</v>
       </c>
       <c r="D49" t="n">
-        <v>1056176.544076694</v>
+        <v>1421422.06015217</v>
       </c>
       <c r="E49" t="n">
-        <v>1125458.966246617</v>
+        <v>488233.7801764788</v>
       </c>
       <c r="F49" t="n">
-        <v>826124.6404953352</v>
+        <v>124943.3934145522</v>
       </c>
       <c r="G49" t="n">
-        <v>468233.7827240286</v>
+        <v>1184422.729512411</v>
       </c>
       <c r="H49" t="n">
-        <v>644780.3427834205</v>
+        <v>1284261.457201202</v>
       </c>
       <c r="I49" t="n">
-        <v>499797.4046055728</v>
+        <v>1491061.959470128</v>
       </c>
       <c r="J49" t="n">
-        <v>800946.8234802294</v>
+        <v>532684.7170859871</v>
       </c>
       <c r="K49" t="n">
-        <v>1118694.816148294</v>
+        <v>1252934.69416962</v>
       </c>
       <c r="L49" t="n">
-        <v>1340366.230741799</v>
+        <v>930674.3881843516</v>
       </c>
       <c r="M49" t="n">
-        <v>1195762.390247737</v>
+        <v>429825.8455195093</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1663397.789970447</v>
+        <v>2432935.284027854</v>
       </c>
       <c r="C50" t="n">
-        <v>1753615.962130552</v>
+        <v>2255260.518616674</v>
       </c>
       <c r="D50" t="n">
-        <v>1707075.158728038</v>
+        <v>1938712.630524574</v>
       </c>
       <c r="E50" t="n">
-        <v>2946373.583225819</v>
+        <v>4766162.197010415</v>
       </c>
       <c r="F50" t="n">
-        <v>1991395.297980403</v>
+        <v>4070490.644294359</v>
       </c>
       <c r="G50" t="n">
-        <v>2936131.572653199</v>
+        <v>4359952.821244264</v>
       </c>
       <c r="H50" t="n">
-        <v>1567417.897114621</v>
+        <v>4374112.879433361</v>
       </c>
       <c r="I50" t="n">
-        <v>1454733.951303484</v>
+        <v>3287263.206923299</v>
       </c>
       <c r="J50" t="n">
-        <v>2946457.10671309</v>
+        <v>2624666.624160619</v>
       </c>
       <c r="K50" t="n">
-        <v>2562289.395092808</v>
+        <v>4041414.424670079</v>
       </c>
       <c r="L50" t="n">
-        <v>2364655.438933943</v>
+        <v>5000583.635714257</v>
       </c>
       <c r="M50" t="n">
-        <v>2421261.005452536</v>
+        <v>3341542.751344952</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3847304.998345728</v>
+        <v>2977121.982063646</v>
       </c>
       <c r="C51" t="n">
-        <v>1252090.943218902</v>
+        <v>389026.9261413798</v>
       </c>
       <c r="D51" t="n">
-        <v>3753652.349061409</v>
+        <v>6226992.863392682</v>
       </c>
       <c r="E51" t="n">
-        <v>1326641.555402101</v>
+        <v>4711682.81781778</v>
       </c>
       <c r="F51" t="n">
-        <v>2012286.560041835</v>
+        <v>5764964.032880025</v>
       </c>
       <c r="G51" t="n">
-        <v>4034219.070238292</v>
+        <v>4597642.585192384</v>
       </c>
       <c r="H51" t="n">
-        <v>4950488.780844169</v>
+        <v>4418541.739967383</v>
       </c>
       <c r="I51" t="n">
-        <v>4282628.610897918</v>
+        <v>5171208.500732015</v>
       </c>
       <c r="J51" t="n">
-        <v>2317075.245579236</v>
+        <v>3436985.547116078</v>
       </c>
       <c r="K51" t="n">
-        <v>3959966.675182381</v>
+        <v>6044955.956264253</v>
       </c>
       <c r="L51" t="n">
-        <v>3581715.368642931</v>
+        <v>5969518.231181283</v>
       </c>
       <c r="M51" t="n">
-        <v>3390091.589888044</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2553058.815941976</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2090822.314202547</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2826100.716874433</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2687352.894089787</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2420618.219067021</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2884695.93654759</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3280679.747279652</v>
-      </c>
-      <c r="I52" t="n">
-        <v>4598181.907757822</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2177880.165291489</v>
-      </c>
-      <c r="K52" t="n">
-        <v>4421620.60138876</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2670219.06339108</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3453161.818009141</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>2889311.476046411</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1012324.0751285</v>
-      </c>
-      <c r="D53" t="n">
-        <v>3063917.294737133</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2253238.634425574</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1738302.132150527</v>
-      </c>
-      <c r="G53" t="n">
-        <v>2414268.437293934</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2782289.003563385</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1819190.484017129</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2199117.018599176</v>
-      </c>
-      <c r="K53" t="n">
-        <v>3982477.231914769</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3271624.523941138</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2142520.870671588</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1521841.36560915</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1916934.683220378</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1910836.806827649</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1384651.316472912</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1570549.856213028</v>
-      </c>
-      <c r="G54" t="n">
-        <v>2193488.196728869</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1940673.369148938</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1190877.579538203</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1230601.817119646</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1585370.841508829</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1099325.739365913</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1571862.590438496</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3483138.611008791</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3165221.136989257</v>
-      </c>
-      <c r="D55" t="n">
-        <v>5378883.330305127</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3356203.628433563</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3019073.265572721</v>
-      </c>
-      <c r="G55" t="n">
-        <v>5329793.332864566</v>
-      </c>
-      <c r="H55" t="n">
-        <v>5450845.442777392</v>
-      </c>
-      <c r="I55" t="n">
-        <v>5087457.941078474</v>
-      </c>
-      <c r="J55" t="n">
-        <v>4162600.611403036</v>
-      </c>
-      <c r="K55" t="n">
-        <v>5238893.719057979</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4775658.757736611</v>
-      </c>
-      <c r="M55" t="n">
-        <v>4276455.644391069</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>2476432.304697709</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4121280.310720864</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3508755.473035181</v>
-      </c>
-      <c r="E56" t="n">
-        <v>3757234.640656056</v>
-      </c>
-      <c r="F56" t="n">
-        <v>4652042.414639086</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4837833.431420885</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4964679.444513501</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4697395.157132418</v>
-      </c>
-      <c r="J56" t="n">
-        <v>5625069.446237969</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4884095.220000582</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4755815.580693278</v>
-      </c>
-      <c r="M56" t="n">
-        <v>5451173.854295235</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>3797882.908512116</v>
-      </c>
-      <c r="C57" t="n">
-        <v>2604179.892655348</v>
-      </c>
-      <c r="D57" t="n">
-        <v>3479987.616867226</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5007023.652723474</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5982763.027453577</v>
-      </c>
-      <c r="G57" t="n">
-        <v>6813181.185398523</v>
-      </c>
-      <c r="H57" t="n">
-        <v>6752512.208514409</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5341940.454249127</v>
-      </c>
-      <c r="J57" t="n">
-        <v>6329314.418559381</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6727007.498976027</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5139280.966477481</v>
-      </c>
-      <c r="M57" t="n">
-        <v>4772643.077111586</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>4232032.667725322</v>
-      </c>
-      <c r="C58" t="n">
-        <v>3816289.590827724</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4505292.956104496</v>
-      </c>
-      <c r="E58" t="n">
-        <v>6076797.709392854</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5125551.188937638</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5807720.371894324</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5233494.471528643</v>
-      </c>
-      <c r="I58" t="n">
-        <v>6163933.943911252</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5291122.009127069</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5962217.921385579</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5198533.005649388</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5873185.088074307</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3280274.521464716</v>
-      </c>
-      <c r="C59" t="n">
-        <v>1870758.943944348</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3339225.016253366</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2989554.503599293</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2850670.485508219</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3383852.592851539</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3778111.437635803</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3540482.75164219</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3528553.40272126</v>
-      </c>
-      <c r="K59" t="n">
-        <v>4144818.250601841</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3214759.888532427</v>
-      </c>
-      <c r="M59" t="n">
-        <v>4198789.905600107</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3561077.186845823</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3214006.068427983</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4417009.259953209</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3967979.550181645</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3555899.480515285</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4114431.823151698</v>
-      </c>
-      <c r="H60" t="n">
-        <v>5050582.722424824</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4643732.285381709</v>
-      </c>
-      <c r="J60" t="n">
-        <v>5207436.384530048</v>
-      </c>
-      <c r="K60" t="n">
-        <v>5382717.5870851</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4764961.79578743</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4690309.386345067</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2388557.258868497</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1711475.832809146</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3246841.623369866</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2338410.619642186</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2768250.93279594</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3282449.332922649</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3189578.674197117</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3125484.6552785</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3374538.817284182</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2802560.845552444</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3259348.087691744</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3229439.574703615</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>4621737.958478443</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4070941.861041396</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5315644.318055271</v>
-      </c>
-      <c r="E62" t="n">
-        <v>4806922.911280805</v>
-      </c>
-      <c r="F62" t="n">
-        <v>4578017.405916026</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5938270.917548118</v>
-      </c>
-      <c r="H62" t="n">
-        <v>6860519.255037936</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5147801.095685593</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6972268.740600255</v>
-      </c>
-      <c r="K62" t="n">
-        <v>6216776.713726865</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5377880.710143622</v>
-      </c>
-      <c r="M62" t="n">
-        <v>6863236.917717637</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>1660183.52597805</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2702129.63630965</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3198321.985239453</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2882619.962796201</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2412064.752551231</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3176860.782350631</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3470863.443194057</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3037236.124543952</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3841116.30457775</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2803111.18930101</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2812003.339236453</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3007931.889283147</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1479569.431222231</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2029458.751068673</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2235558.470989745</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2006498.63795283</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2572576.110455387</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2246547.950446338</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2384215.572090153</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2501414.095058584</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2287284.08209829</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2630033.492532778</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1914604.460840104</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2452241.349599438</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1783843.800498602</v>
-      </c>
-      <c r="C65" t="n">
-        <v>463210.7725602215</v>
-      </c>
-      <c r="D65" t="n">
-        <v>-2513026.577888618</v>
-      </c>
-      <c r="E65" t="n">
-        <v>3082308.817306498</v>
-      </c>
-      <c r="F65" t="n">
-        <v>4842757.341443944</v>
-      </c>
-      <c r="G65" t="n">
-        <v>3607969.177787494</v>
-      </c>
-      <c r="H65" t="n">
-        <v>3474951.574963397</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2782878.065847295</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3314940.114238806</v>
-      </c>
-      <c r="K65" t="n">
-        <v>3468030.705120029</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1554474.156798875</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1275704.322901818</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>6196050.135930014</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4355349.594206918</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5586706.988436001</v>
-      </c>
-      <c r="E66" t="n">
-        <v>4908246.447005109</v>
-      </c>
-      <c r="F66" t="n">
-        <v>6892540.574323621</v>
-      </c>
-      <c r="G66" t="n">
-        <v>6552183.804752827</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5119455.2961005</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5993384.631132618</v>
-      </c>
-      <c r="J66" t="n">
-        <v>6935146.244071678</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6265915.495456159</v>
-      </c>
-      <c r="L66" t="n">
-        <v>6828571.3668383</v>
-      </c>
-      <c r="M66" t="n">
-        <v>7131890.367688266</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>327722.5663856255</v>
-      </c>
-      <c r="C67" t="n">
-        <v>811006.6211196797</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1240294.159615709</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1400542.774993576</v>
-      </c>
-      <c r="F67" t="n">
-        <v>529209.0130565732</v>
-      </c>
-      <c r="G67" t="n">
-        <v>188273.9742381127</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1218692.810552594</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1286797.731563114</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1447612.859966868</v>
-      </c>
-      <c r="K67" t="n">
-        <v>475437.9098914883</v>
-      </c>
-      <c r="L67" t="n">
-        <v>1158415.273103175</v>
-      </c>
-      <c r="M67" t="n">
-        <v>827560.0985898642</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2298514.283327467</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2703044.614616272</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2389125.384702443</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1958354.758868785</v>
-      </c>
-      <c r="F68" t="n">
-        <v>4864563.20005565</v>
-      </c>
-      <c r="G68" t="n">
-        <v>4148707.845612893</v>
-      </c>
-      <c r="H68" t="n">
-        <v>4309151.284134952</v>
-      </c>
-      <c r="I68" t="n">
-        <v>4308734.85244962</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3286368.506579581</v>
-      </c>
-      <c r="K68" t="n">
-        <v>2557549.228050643</v>
-      </c>
-      <c r="L68" t="n">
-        <v>4039778.072079286</v>
-      </c>
-      <c r="M68" t="n">
-        <v>5005970.511997946</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>3312575.797563228</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2916415.075770062</v>
-      </c>
-      <c r="D69" t="n">
-        <v>358084.020389976</v>
-      </c>
-      <c r="E69" t="n">
-        <v>6421142.478552649</v>
-      </c>
-      <c r="F69" t="n">
-        <v>4699968.471888283</v>
-      </c>
-      <c r="G69" t="n">
-        <v>5754097.580524936</v>
-      </c>
-      <c r="H69" t="n">
-        <v>4518474.14132787</v>
-      </c>
-      <c r="I69" t="n">
-        <v>4412672.903322404</v>
-      </c>
-      <c r="J69" t="n">
-        <v>5239645.752541481</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3518769.029110475</v>
-      </c>
-      <c r="L69" t="n">
-        <v>6173851.574331455</v>
-      </c>
-      <c r="M69" t="n">
-        <v>6090512.208594946</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>14775174.51726621</v>
-      </c>
-      <c r="C70" t="n">
-        <v>2925666.124337093</v>
-      </c>
-      <c r="D70" t="n">
-        <v>-87635141.87785365</v>
-      </c>
-      <c r="E70" t="n">
-        <v>36754486.23753823</v>
-      </c>
-      <c r="F70" t="n">
-        <v>42052699.95816018</v>
-      </c>
-      <c r="G70" t="n">
-        <v>51362205.45385529</v>
-      </c>
-      <c r="H70" t="n">
-        <v>25195741.37444632</v>
-      </c>
-      <c r="I70" t="n">
-        <v>-2761336.554821106</v>
-      </c>
-      <c r="J70" t="n">
-        <v>65610951.86269481</v>
-      </c>
-      <c r="K70" t="n">
-        <v>76125692.76002026</v>
-      </c>
-      <c r="L70" t="n">
-        <v>80509528.9680354</v>
-      </c>
-      <c r="M70" t="n">
-        <v>60637082.51971656</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>9173824.32739369</v>
-      </c>
-      <c r="C71" t="n">
-        <v>25301948.56471724</v>
-      </c>
-      <c r="D71" t="n">
-        <v>33898566.06826633</v>
-      </c>
-      <c r="E71" t="n">
-        <v>25866510.4268041</v>
-      </c>
-      <c r="F71" t="n">
-        <v>22028335.15407983</v>
-      </c>
-      <c r="G71" t="n">
-        <v>30190875.05509987</v>
-      </c>
-      <c r="H71" t="n">
-        <v>30263902.47012811</v>
-      </c>
-      <c r="I71" t="n">
-        <v>32827837.22637399</v>
-      </c>
-      <c r="J71" t="n">
-        <v>37056908.74250454</v>
-      </c>
-      <c r="K71" t="n">
-        <v>31465946.18860782</v>
-      </c>
-      <c r="L71" t="n">
-        <v>35292310.87814815</v>
-      </c>
-      <c r="M71" t="n">
-        <v>65748610.40314454</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>2914672.576979549</v>
-      </c>
-      <c r="C72" t="n">
-        <v>4243107.469405417</v>
-      </c>
-      <c r="D72" t="n">
-        <v>5733604.414963781</v>
-      </c>
-      <c r="E72" t="n">
-        <v>5182274.822049848</v>
-      </c>
-      <c r="F72" t="n">
-        <v>3686629.815858544</v>
-      </c>
-      <c r="G72" t="n">
-        <v>3968133.795519597</v>
-      </c>
-      <c r="H72" t="n">
-        <v>4257918.379223228</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3077855.308561263</v>
-      </c>
-      <c r="J72" t="n">
-        <v>4572871.937571775</v>
-      </c>
-      <c r="K72" t="n">
-        <v>1888930.961516417</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3928705.069411532</v>
-      </c>
-      <c r="M72" t="n">
-        <v>2439725.908594487</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>3693424.159478295</v>
-      </c>
-      <c r="C73" t="n">
-        <v>2936722.643903695</v>
-      </c>
-      <c r="D73" t="n">
-        <v>13764487.61282847</v>
-      </c>
-      <c r="E73" t="n">
-        <v>15609470.41958397</v>
-      </c>
-      <c r="F73" t="n">
-        <v>-2934163.727673565</v>
-      </c>
-      <c r="G73" t="n">
-        <v>13648889.16986894</v>
-      </c>
-      <c r="H73" t="n">
-        <v>17941362.39475695</v>
-      </c>
-      <c r="I73" t="n">
-        <v>19188893.85455384</v>
-      </c>
-      <c r="J73" t="n">
-        <v>16264135.49491867</v>
-      </c>
-      <c r="K73" t="n">
-        <v>17940992.54828943</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3399985.621840777</v>
-      </c>
-      <c r="M73" t="n">
-        <v>-2299900.055053406</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>11961100.60868527</v>
-      </c>
-      <c r="C74" t="n">
-        <v>20385082.16978837</v>
-      </c>
-      <c r="D74" t="n">
-        <v>21475745.83191335</v>
-      </c>
-      <c r="E74" t="n">
-        <v>20770187.23363795</v>
-      </c>
-      <c r="F74" t="n">
-        <v>18016649.57972283</v>
-      </c>
-      <c r="G74" t="n">
-        <v>21291737.12140581</v>
-      </c>
-      <c r="H74" t="n">
-        <v>20307939.65712866</v>
-      </c>
-      <c r="I74" t="n">
-        <v>14887819.00946243</v>
-      </c>
-      <c r="J74" t="n">
-        <v>19662600.25155255</v>
-      </c>
-      <c r="K74" t="n">
-        <v>17520905.65772698</v>
-      </c>
-      <c r="L74" t="n">
-        <v>20555071.43879347</v>
-      </c>
-      <c r="M74" t="n">
-        <v>27908947.54301137</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>20903810.5748473</v>
-      </c>
-      <c r="C75" t="n">
-        <v>17830835.32878865</v>
-      </c>
-      <c r="D75" t="n">
-        <v>19445008.96493231</v>
-      </c>
-      <c r="E75" t="n">
-        <v>34238926.77951251</v>
-      </c>
-      <c r="F75" t="n">
-        <v>26877215.91371126</v>
-      </c>
-      <c r="G75" t="n">
-        <v>39428557.69196527</v>
-      </c>
-      <c r="H75" t="n">
-        <v>31719901.16626708</v>
-      </c>
-      <c r="I75" t="n">
-        <v>35153491.66942767</v>
-      </c>
-      <c r="J75" t="n">
-        <v>38721687.68362568</v>
-      </c>
-      <c r="K75" t="n">
-        <v>29185993.22187017</v>
-      </c>
-      <c r="L75" t="n">
-        <v>27752731.43688523</v>
-      </c>
-      <c r="M75" t="n">
-        <v>52279550.64115638</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>-941694.8076778384</v>
-      </c>
-      <c r="C76" t="n">
-        <v>-14294346.95568887</v>
-      </c>
-      <c r="D76" t="n">
-        <v>-22821272.85595611</v>
-      </c>
-      <c r="E76" t="n">
-        <v>34888140.7450361</v>
-      </c>
-      <c r="F76" t="n">
-        <v>905718.6680936677</v>
-      </c>
-      <c r="G76" t="n">
-        <v>61481491.09636469</v>
-      </c>
-      <c r="H76" t="n">
-        <v>43961484.79128027</v>
-      </c>
-      <c r="I76" t="n">
-        <v>40578499.62351689</v>
-      </c>
-      <c r="J76" t="n">
-        <v>50676154.64841927</v>
-      </c>
-      <c r="K76" t="n">
-        <v>45515307.72882438</v>
-      </c>
-      <c r="L76" t="n">
-        <v>289295.2973608737</v>
-      </c>
-      <c r="M76" t="n">
-        <v>9050036.047234727</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>30936952.45003804</v>
-      </c>
-      <c r="C77" t="n">
-        <v>-1534140.644076949</v>
-      </c>
-      <c r="D77" t="n">
-        <v>-27053304.24306134</v>
-      </c>
-      <c r="E77" t="n">
-        <v>83033055.79453097</v>
-      </c>
-      <c r="F77" t="n">
-        <v>14315192.3756188</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-11898779.7424283</v>
-      </c>
-      <c r="H77" t="n">
-        <v>11661592.50948797</v>
-      </c>
-      <c r="I77" t="n">
-        <v>13670608.34884789</v>
-      </c>
-      <c r="J77" t="n">
-        <v>40328497.70506953</v>
-      </c>
-      <c r="K77" t="n">
-        <v>54755629.90680209</v>
-      </c>
-      <c r="L77" t="n">
-        <v>48087917.64430945</v>
-      </c>
-      <c r="M77" t="n">
-        <v>-1061088.520672333</v>
+        <v>3964043.66833892</v>
       </c>
     </row>
   </sheetData>
